--- a/biology/Botanique/Ormosia/Ormosia.xlsx
+++ b/biology/Botanique/Ormosia/Ormosia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ormosia est un genre de plantes dicotylédones de la famille des Fabaceae, sous-famille des Faboideae, originaire d'Amérique, d'Asie et d'Australie, qui compte environ 120-140 espèces acceptées, et dont l'espèce type est Robinia coccinea (Aubl.) Jacks..
-Le nom « Ormosia » proviendrait du grec ὅρμος hórmos signifiant « collier», en référence aux graines noires et rouges chatoyantes (souvent toxiques) employées en perlerie[3].
+Le nom « Ormosia » proviendrait du grec ὅρμος hórmos signifiant « collier», en référence aux graines noires et rouges chatoyantes (souvent toxiques) employées en perlerie.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Cimie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces du genre Ormosia contiennent des alcaloïdes quinolizidinique dipipéridinique (spartéine et lupanine) qui en plus de leur toxicité notable, présentent des activités hypnotiques, morphiniques, anti-arythmiques, diurétiques et affectent la vision[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces du genre Ormosia contiennent des alcaloïdes quinolizidinique dipipéridinique (spartéine et lupanine) qui en plus de leur toxicité notable, présentent des activités hypnotiques, morphiniques, anti-arythmiques, diurétiques et affectent la vision.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Sélection d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Espèces de Guyane :
 Ormosia cinerea Benoist, 1920 - Subendémique
@@ -586,9 +602,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (6 juin 2022)[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (6 juin 2022) :
 Ormosia acuminata Graham
 Ormosia altimontana Meireles &amp; H.C.Lima
 Ormosia amazonica Ducke
@@ -749,7 +767,7 @@
 Ormosia yunnanensis Prain
 Placolobium ellipticum N.D.Khôi &amp; Yakovlev
 Placolobium vietnamense N.D.Khôi &amp; Yakovlev
-Selon The Plant List            (5 octobre 2018)[6] :
+Selon The Plant List            (5 octobre 2018) :
 Ormosia amazonica Ducke
 Ormosia antioquensis Rudd
 Ormosia apiculata L.Chen
